--- a/Generate All Figures/Supplementary Tables/Supplementary Table 6 - trends in subtype specific DEGs with increasing number of subtypes in each combination.xlsx
+++ b/Generate All Figures/Supplementary Tables/Supplementary Table 6 - trends in subtype specific DEGs with increasing number of subtypes in each combination.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yi\Evolution Paper\Post processing runs\Generate All Figures\Supplementary Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yi\Evolution Paper\Accelerated-Cell-type-Evolution-in-the-Human-Brain\Generate All Figures\Supplementary Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8001FBA6-A4C3-491F-B821-3326E83F02F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811A0B10-52F3-497D-91A0-58088584BF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{6E38A8BF-8E23-4E94-8C2F-EFFAC1669F74}"/>
+    <workbookView xWindow="-22656" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{6E38A8BF-8E23-4E94-8C2F-EFFAC1669F74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,14 +85,14 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -110,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -120,51 +120,113 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -172,23 +234,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,126 +603,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1284F478-7BE5-40AE-A5A5-4296654A25F7}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>276.33999999999997</v>
-      </c>
-      <c r="C3" s="1">
-        <v>385.5</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="7">
+        <v>356</v>
+      </c>
+      <c r="C3" s="7">
+        <v>453</v>
+      </c>
+      <c r="D3" s="7">
         <v>514</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2">
-        <v>295</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="5">
+        <v>321</v>
+      </c>
+      <c r="C4" s="5">
         <v>433</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+    <row r="5" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1">
-        <v>325</v>
-      </c>
-      <c r="C8" s="1">
-        <v>285.5</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B8" s="7">
+        <v>35</v>
+      </c>
+      <c r="C8" s="7">
+        <v>90</v>
+      </c>
+      <c r="D8" s="7">
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
-        <v>171</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="5">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5">
         <v>58</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="10" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
